--- a/500all/speech_level/speeches_CHRG-114hhrg98885.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98885.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,24 +52,15 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I thank you for both having this hearing and for your leadership on acquisition reform. As you mentioned, in last year's bill a number of changes were made in the area of acquisition, and I think you correctly state the need.    We have, well, more equipment that we need to buy than we have money to buy it. The next decade is going to be a major challenge for the Pentagon no matter what with major systems that need to be replaced or upgraded and a budget that is less than we had hoped it would be and may even be less still. So if we can buy that more efficiently, more quickly, at a lower cost, that is better.    But the challenges, you know, are in some cases, I think, difficult to overcome. And we can all sort of give the basic acquisition reform speech, which is, you know, we need to buy it more quickly; it needs to be upgradeable; we need to make decisions more quickly.    But let's look at the reasons why we don't. You know, certainly part of it is the bureaucracy, and we can look at working on that. But part of it also is just the rapidly changing nature of technology.    If you decide, okay, boom, right now, we are going to get this in 2 years, and in the middle of that process, there is some significant upgrade in a critical technology to the piece of equipment you are building, are you better to simply build what you did, accept good enough, or to try to incorporate in those new technologies that make it and improve it?    That is not an easy decision to make. It is the nature of the world we live in, and I don't think any acquisition reform process is necessarily going to change that. What I am most interested in is how we can more empower the individuals at the Pentagon to make those decisions with fewer layers of bureaucracy because one thing that does slow down the process is the number of people that have to approve a program. And it becomes sort of a, you know, vicious cycle. The programs take so long that you have more and different people in charge or a part of them, and everyone has got a slightly different way of looking at it when they become in charge, so it changes more and more as you go forward.    So what I would hope to do is to be able to empower individuals, program managers, to make quicker decisions to move forward. But if we are going to do that--is the last thing I will say--we also have to allow them to make mistakes.    And I think that is one of the biggest reasons that we have the acquisition nightmare that we have, is if a program is purchased and it doesn't work out and it becomes too costly, everybody is outraged. And there are all kinds of exposes. And what do we do? We say, well, we have got to have more oversight. You know, we have got to make sure we don't make these mistakes again. And what more oversight means is more people, more time, and a slower process. So we really have to make the choice and say that--you know, Silicon Valley loves to say that one of their great things is they tolerate failure because they know that is part of the experimentation process.    We need to learn how to do that a little bit at the Pentagon, empower people, make decisions, understanding they will make mistakes, but putting six layers of bureaucracy over the top of them isn't going to eliminate the mistakes and is only going to make the process more costly and more lengthy as well.    So it is a difficult challenge, one that I am aware we will not be able to legislate a magic fix for, but we want to figure out what we can do to help. So I look forward to your comments today that will help guide us in that process.    [The prepared statement of Mr. Smith can be found in the Appendix on page 48.]    The Chairman. We are fortunate to be joined today by General Michael E. Williamson, the Principal Military Deputy to the Assistant Secretary of the Army for Acquisition, Logistics, and Technology; the Honorable Sean Stackley, Assistant Secretary of the Navy for Research, Development, and Acquisition; and Mr. Richard W. Lombardi, acting Assistant Secretary of the Air Force for Acquisition.    Again, thank you all for being here. Without objection, your full written statements will be made part of the record, and each of you will be recognized to summarize your comments.    General, please proceed.    General Williamson. Chairman Thornberry, Ranking Member Smith, and distinguished members of the Armed Services Committee, in the interest of time, I will just make a few comments. But I would like to start by first thanking you for your continuing engagement with the Army on acquisition reform. This is really about, how do we get capability to our soldiers quickly, really, the right equipment at the right time.    I also want to thank you for the legislation that supports attracting, training, and retaining quality acquisition professionals. At the end of the day, program success is tied to having qualified people managing and running those programs.    I respectfully request that my written statement be made a part of the record. In it, I discuss a couple of key areas: First, modular open systems architecture; the Army's ongoing evaluation and experimentation programs and initiatives; and, really, our efforts to build a technologically superior force. That can only be accomplished by having an acquisition system that is responsive and agile.    I think Mr. Smith's comment is really important: technologies will continue to change. So one of the things that I have been following this week is the Consumer Electronics Show out in Las Vegas, and what concerns me about that is the tremendous amount of technology that our potential adversaries now have access to. And so having an agile acquisition system, one that allows us to not just meet the current set of capabilities but also find technologies that give us a competitive advantage, overmatch capability becomes critical.    Mr. Chairman, distinguished members of the committee, let me take this opportunity to thank you again for your steadfast and strong support to the outstanding men and women of the United States Army, our Army civilians, and our families. This concludes my opening remarks, and I look forward to your questions.    [The prepared statement of General Williamson can be found in the Appendix on page 49.]    The Chairman. Mr. Stackley.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Stackley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Stackley. Chairman Thornberry, Ranking Member Smith, distinguished members of the Armed Services Committee, thank you for the opportunity to appear before you today to discuss Department of the Navy, Marine Corps acquisition, and our efforts to improve agility and experimentation.    Your Navy and Marine Corps have a rich history of pushing the boundaries of science and technology to ensure our sailors and marines are equipped with the capabilities that they require to perform the full range of military operations that they are required.    Our ability to maintain our maritime dominance has become increasingly difficult, however, as the complexity, risk, cost, and time to develop our weapons system has steadily increased with each new generation of technology. In fact, our technological advantage is eroding. It is being chipped away at, as other militaries leverage access to the rapid global advancements in commercial and military science, technology, and manufacturing.    The Department of Defense [DOD] has been on a campaign commonly referred to as Better Buying Power, which is focused on and making critical inroads to address these trends. As well, we appreciate the work of your committee to understand the issues and to enact the measures that will support us in meeting our collective objectives to improve upon the cost and time required to develop and deliver these leading-edge warfighting capabilities.    At the bottom line, maintaining our technological superiority requires greater innovation and agility to more than offset our adversaries' growing capabilities. Really, prototyping and experimentation are an essential element of our strategy. These efforts jump-start the development process and inform critical decisions on operational utility, technical feasibility, producibility, cost, and risk in order to expedite the ultimate fielding of advanced warfighting capability.    Now, what do innovation and agility look like today? In response to the proliferation of ballistic missile threat and turning to the proven capability of the Aegis weapon system, the President announced 6 years ago that we would install Aegis at a remote location in Romania to provide missile defense for our allies in the region.    In the ensuing years, involving sites at Huntsville, Alabama, and at the Aegis land base test site in Morristown, New Jersey, the Naval Warfare Center in Dahlgren, Virginia, and Wallops Island, Virginia, and the Pacific Missile Range facility in Hawaii, the Navy and the Missile Defense Agency completed the design, development, and test of the most complex to date Aegis BMD [ballistic missile defense] baseline to perform the mission and separately designed the facility, and built, assembled, integrated, and tested the total system at Morristown; then disassembled, shipped, reassembled, integrated, and the tested that facility on the ground in an austere location in Romania; all leading to turnover of the Aegis Ashore site to sailors of the 6th Fleet about a week ago.    In the interim, the Navy had provided ballistic missile defense by forward deploying four BMD-capable Aegis destroyers to the Mediterranean. Subsequent to their arrival, a new cruise missile threat emerged. In response, the Naval Research Lab, working with Naval Warfare Center at Crane, Indiana, went to work breaking down the characteristics of the threat and, within a deployment cycle, assembled, shipped overseas, and installed onboard the destroyers a transportable electronic warfare system that would effectively counter it.    In parallel, the Naval Sea Systems Command went to work designing and installing on the destroyers an adjunct system known as C-RAM that combines the radar, the Navy's close-in weapon system with the rolling airframe missile to provide defense in-depth against the threat. And all the while, the newest Aegis baseline and the Navy Surface Electronic Warfare Improvement Program are being updated with these capabilities to provide the permanent capability.    Meanwhile, in the 5th Fleet, a torpedo threat emerged that triggered a demand for a torpedo defense for our carriers deployed in that region. And what was called the ``Push to the Bush,'' the Naval Undersea Warfare Center in New London, Connecticut, working with Penn State Applied Research Lab developed and integrated a series of underwater sensors, an alert system, and an antitorpedo torpedo that was installed on the USS George H.W. Bush prior to her deployment to provide the first-ever surface ship torpedo defense system. And we are now further improving upon that capability as we transition to a program of record.    Separately, in response to a combatant commander's demand, within a 12-month timeline, the Navy converted the retiring USS Ponce to perform the mission of an afloat forward staging base for the 5th Fleet. And Ponce proved to be the perfect opportunity to put to sea the first ever laser weapon system. The Navy is leveraging this experiment to further our development of directed-energy weapons.    And, meanwhile, on the other side of the globe, in the 7th Fleet, demonstration by China of a long-range antiship cruise missile, a long-range antiship ballistic missile, spurred rapid development of capabilities to counter these threats. And within about a year's timeframe, Naval Air Warfare Center at China Lake demonstrated the ability to employ the Tomahawk missile against maritime targets through a synthetic guidance, and we are exploring further systems with new seekers for that weapon.    Similarly, we are developing the antiship version of the air-launched missile known as JASSM-ER [Joint Air-to-Surface Standoff Missile-Extended Range] and will explore further steps to develop a surface-launched version of this missile. And while the details regarding the defense against antiship ballistic missiles are classified, we are employing the same basic skills of integrating mature technologies into proven systems to rapidly provide the capability necessary to defeat the threat.    Now, there are several key elements that are common to these examples of rapid prototyping and experimentation. First and foremost is a highly skilled and experienced acquisition workforce. And we are fortunate to have warfare centers, system centers, and laboratories equipped with world-class scientists and engineers uniquely qualified to develop technical solutions to complex warfighting problems, and they are positioned to leverage FFRDCs [Federally Funded Research and Development Centers], academia, small businesses, and the greater defense industry to execute our rapid prototype efforts.    The Department, with strong support from Congress, is taking measures to strengthen this workforce, and we look to further those efforts with you this year.    The second key enablers, the integration of these technical experts with our fleet forces, the collective wisdom of our operational forces combined with our technical community's understanding of complex science, technology, and engineering challenges facing naval warfare, provide an incredible opportunity to change the calculus of future naval warfare.    The third key enabler is designing our major weapons systems for rapid insertion of technology through the use of modular open systems standards. The success of the Navy submarine force's Acoustic Rapid COTS [Commercial Off-the-Shelf] Insertion program, which provided a common open system designed for submarine combat systems and enabled the near-continuous upgrade to the systems paced by available technology and a response to the threat, has spurred a sea change in naval systems design.    Navy and Marine Corps systems have since instituted modular open system design standards in the development of virtually all of our future platforms and major weapons systems.    The fourth key enabler is a work in process, and that is agility on the business side of the equation, primarily budgeting and contracting to match the agility we expect and demand on the technical and operational side. The cycle time of the budget process alone is arguably greater than the cycle time of the technologies we need to leverage and, in certain cases, the cycle time of the threat we need to defeat.    If we are to improve upon the speed at which we deliver capability to the fleet, we must improve upon the time required to go from the identification of a threat or a critical technology and touching the hardware and software required to defeat the threat.    I am confident we have the ability to collapse this timeline while yet maintaining the necessary judicious oversight required by Congress on the use of taxpayer dollars. We have demonstrated the ability to accelerate capability and response to urgent needs, and we are bringing a similar sense of urgency to major program acquisition to deliver capability at much-needed speed of technology.    The Navy looks forward to working closely with your committee again this year as we continue to tackle these challenges, and I look forward to your questions.    [The prepared statement of Secretary Stackley can be found in the Appendix on page 58.]    The Chairman. Thank you.    Mr. Lombardi.</t>
   </si>
   <si>
-    <t>Lombardi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lombardi. Chairman Thornberry, Ranking Member Smith, members of the committee and staff, thank you for today's opportunity to discuss acquisition reform and particularly experimentation and agility. It is my pleasure to do so.    First, let me say that Dr. Bill LaPlante set our acquisition community on a brilliant course during his tenure, and I----    The Chairman. Mr. Lombardi, would you get that mike right in front of your mouth, please. Thank you.</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mr. Chairman.    And we need to first acknowledge the effort that you and the ranking member have put in this whole area of acquisition reform. Thank you for that.    Gentlemen, thank you for being here. All three of you are incredibly qualified, talented individuals, and we just appreciate your service to the country and being here.    Let me tell you one of my most frustrating points when we are talking about acquisition reform, especially when you look at emerging technologies, capabilities, and threats. People come in here, and they give us the scenario. They say: In a best world, we have a year at the Pentagon to prepare a budget. Then it takes a year over here in Congress. And then we start trying to utilize that funding, and some of the stuff we are looking at has a shelf life of 3 years.    But when I watch speeches outside of this committee room and try to listen to the changes they want, here is what I normally hear: A restating of the problem; secondly, I hear people say something needs to be done; then they say we are studying it; then they say we need a stable budget; then they will give some examples. But, oftentimes, we don't get the specificity we need.    Mr. Stackley, you have had incredibly good work. You have been there 7-plus years, I guess, now. Based on your personal opinion and from the study you have had and what you have done, does the Navy need to establish something similar to the Air Force's Rapid Capabilities Office?</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And, really, just following up with everything that has been said previously, can you pinpoint to some extent--and I want to applaud you because you have the answer basically. I mean, you know what needs to be done. What is really getting in the way of doing that?    How much responsibility does Congress bear? What can we obviously do better? And you have cited the 6.4 accounts. I don't know whether in terms of other research and development, you know, be it DARPA [Defense Advanced Research Projects Agency], people are aware of what is done there. What else--where else can you drive this?</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>400279</t>
   </si>
   <si>
-    <t>Jeff Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much.    I am wondering why you feel like the need for flexibility--and I understand for rapid acquisitions. In fact, Mr. Lombardi, you talked about flexible funding, and then, Mr. Stackley and General Williamson, you both have referred to it. There probably was a reason at some point that Congress kind of stovepiped the money in the way it comes to you. Any idea what that reason was?</t>
   </si>
   <si>
@@ -208,9 +190,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to the witnesses for the hearing today.    In the last defense authorization bill, we actually moved forward on a series of reforms. And, again, I salute the chairman and ranking member for their hard work in terms of some of these streamlinings of the acquisition process.    Another thing to build in was to revisit the National Sea-Based Deterrence Fund to expand the range of acquisition tools available to the Navy as they prepare to move to the next critical stage of recapitalization of our ballistic submarine fleet, which, again, has been consistently identified as one of the top priorities of our national defense. It is also one of the highest cost programs that we are facing.    In the 2016 NDAA, we expanded the fund to include authorization of incremental funding authority, economic order quantity contract authority, and advance construction authority. And, as Mr. Forbes knows, last month, the Seapower Subcommittee held a hearing on acquisition efficiency in Navy shipbuilding, and CBO [Congressional Budget Office] and CRS [Congressional Research Service] testified. Among their findings, both experts testified that using the fund with these new authorities would generate up to a 10 percent reduction in program costs. So we are talking about $100 billion program; 10 percent is real money. That is almost the equivalent of getting 12 boats for the price of 11, according to their math.    So, Mr. Stackley, I just wanted to ask you if you have considered the benefits outlined by CBO and CRS in the use of the fund as it exists today with the new authorities that were enacted in the NDAA 2016 bill.</t>
   </si>
   <si>
@@ -229,9 +208,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. I want to thank Chairman Mac Thornberry for his promotion of acquisition reform, experimentation and agility. I believe he is really making a difference and with your help.    In particular, Secretary Stackley, what lessons can you draw from the experience of building a prototype laser weapon system on the ship Ponce that might illustrate the value of prototyping as well as the limitations?</t>
   </si>
   <si>
@@ -259,9 +235,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you to all of our witnesses today. And in particular, I would like to welcome you, Mr. Lombardi. As we know, I came to know you in your work at Hanscom Air Force Base, and it is great to see you here in this new capacity. I appreciated very much the work we were able to do then, and I know coming from the Massachusetts environment, you do recognize the opportunities presented by working with the academic communities as well as the private sector and the federally funded research facilities and the opportunities that that creates given the rapid-change environment we live in.    I wanted to revisit some of your testimony and what you talked about the Air Force's efforts to contract with companies that have not traditionally worked with the services. I know this was a pilot project that actually took place at Hanscom. I am just curious as to what your experience was with this type of outreach, and what are some of the best practices and lessons learned that came as a result? Given the universe of companies that are out there, I am also curious as to how you identified and solicited those companies to become part of this effort.</t>
   </si>
   <si>
@@ -292,9 +265,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Mr. Lombardi, now the focus of this hearing is on experimentation, agility, and ultimately delivering combat capability to our men and women in the field. With that in mind and for over six decades, the Air Force's Big Safari program has been an extraordinarily successful, agile organization, and it has in the past been a go-to organization when capability was needed in a short amount of time.    Yet it appears over the last few years that that sort of agility has come under some stress, and Big Safari is operating more like the mainstream organizations rather than trying to leverage and replicate that agility into those organizations. As one example, we understand that the contracting function has been moved out from under their organization, just as it has been across the rest of the Air Force. It would seem to many that aligning all elements of program execution under a single entity would make more sense.    Looking back on what made this program successful, isn't the Big Safari program a model for some of the acquisition reform that we clearly need and are looking for now, and is this an acquisition culture model that we need to fully protect and to foster?    Mr. Lombardi.</t>
   </si>
   <si>
@@ -310,9 +280,6 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman, and I also want to join my colleagues in thanking you for your leadership on this issue. It is a very difficult one and one on which the Congress has worked for a long time, and I hope that with your leadership and that of the ranking member, we will continue to make some progress this year. There were a number of obstacles listed by both the chairman and the ranking member as to why acquisition reform has proven so difficult.    One that was omitted, I believe, was the influence of the defense contractors themselves. We know that in 2014, which is the last year for which we have full data, they spent $70 million to influence the decisions that lawmakers make, and I think that is a factor. I don't know how large a factor. We can measure what they spent. I don't know what its effect is on the ultimate decisions, but it is a factor, and I think that needs to be included in the calculus for reform. And I would link campaign finance reform to military acquisition reform. I think those two things are important, and I would welcome any comments on that.    However, I would like to ask a question about a different area, and it gets back to another issue that has been raised in today's hearing so far, and that is allowing the military the freedom to experiment and the freedom to fail in order to better guarantee innovation and success down the road long term.    General Williamson, I would like you to talk a little about the Network Integration Evaluation, or NIE, and the Army Warfighting Assessment, or the AWA--one which looks at programs that are programs of record and the other that allows the Army to experiment with programs that are not programs of record--and how those two work together to satisfy the concern that many of us have raised and you have pointed to. I think I heard you say that we are looking for early, more experimental stuff, not necessarily connected to programs of record, not necessarily connected to identified gaps, but those kind of things that may appear in the future unbeknownst to us now.    General Williamson. Sir, thank you for the question. This is one that I think as an Army we are very, very proud of in terms of the development of both the network integration exercises and the new warfighting assessments. So what we discovered in 2011 is that, as we were deploying capability in the theater, we found that even though we were finding the best of breed, whether it was a radio or a system, the integration was happening in the field in combat, and what we really needed was a venue to make sure that all of the pieces worked together. So the start of the NIE really was focused on integration. But at the same time we were doing that, sir, we really discovered that we did not have a good operational venue to look at new capabilities, get the warfighter to touch them early on and influence the requirements process and to make changes, refinements, in the requirements.    So the network integration exercises quickly evolved from pure integration to also looking at, what is the effect of introducing this new technology? Because here is what I would offer to you, is that in some cases, it is not a new thing; it could be a new use for an existing technology. And how you do tactics, techniques, and procedures, how you organize your unit, all of those things have an effect on, am I increasing warfighting or the power of that unit?    So as we discovered that, the NIEs really were technically focused, and we discovered that we needed to also spend more time reaching out and looking deeper, further out. What capability do we need 5 years, 10 years, 20 years from now, and the warfighting assessments that we are now implementing give us that capability.    And, sir, to your point, this is really what is so important about what we are doing, is that that information comes back, and it influences not only current systems, but it also sets the conditions for the requirements documents that are more realistic in terms of what is really needed. I think this is something that did not exist. We did small pockets, but the center of gravity for us is a brigade. And even though this is resource heavy, we dedicated an entire brigade to have these experiments and to do these integration exercises. We are very proud of what they have accomplished.</t>
   </si>
   <si>
@@ -322,18 +289,12 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here. I heard a couple of you, I think Secretary Stackley and Lombardi, saying that they were confident that we could reduce some acquisition time, and you were on the right track for making changes. And that is good, but I am probably pretty skeptical. I certainly hope we can reduce the time and be more flexible and be more agile. The history just doesn't show that. Everybody in this room--and even Frank Kendall, who is not in this room--everybody kind of knows what you have to do to speed this up and understands it is going to be very difficult to get there because we can't do every program with the Skunk Works. We just can't do it.    So we are looking for ways that we can speed up the process, streamline it. The ranking member talked about the levels of review and oversight within the Pentagon, and then we add on top of that. And, of course, we bear some culpability for sure here in Congress because if a system is being manufactured in our district or an office is in our district, it clearly is a key national security interest, and if it is in somebody else's district, it is a bill payer. So we understand that we are part of the problem, and we need to work on that ourselves. I have been pleased to see that you all, the Pentagon, and industry has been smarter and smarter in making sure that some major component is built in everybody's district, so that makes it a little bit easier because whatever that component is, is a key national security interest, and therefore, we are going to do our part to protect it. That is the way our job is because we are looking to protect jobs in our district.    I want to go back for just a minute to the ever-name-changing Marine Corps expeditionary fighting vehicle. I remember very well because I put it there in POM 1990 in an earlier life. We could not afford that vehicle, which was called the Triple A back then, so it was always in the last year of the POM. When people, my successors came, it kept coming, and it kept going the last year of POM, and we couldn't afford it. It took every nickel of procurement Marine Corps to buy that one item, and yet it stayed in the POM year after year after year, until finally reality caught up, finally.    So part of this is, we need to live a little bit more, in my judgment, in the world of the possible, in a reality. If you can't afford it, you know you can't afford it, then why are you expending all of that energy? And I am raising my hand; I was guilty. I put it right in there because I was told how important this was. We need to do a better job--we collectively--we here and certainly those of you sitting at the table. When you are living, as we are now, in an uncertain budget time--I would argue we are always in an uncertain budget time--let's don't put our energy into doing something that we cannot afford and are not going to be able to afford. My argument to you is that is where that Triple A, which then became the expeditionary fighting vehicle and something else now, you couldn't buy it. If you took every procurement dollar, every procurement Marine Corps dollar--that is what it took--you couldn't buy another thing. You couldn't buy a single rifle, nothing.    I think that is part of this process. We all know that the JROC [Joint Requirements Oversight Council], the whole requirements process is cumbersome, and I have heard you use today words like ``long cycles'' and ``long cycles within cycles.'' It seems to me that is what we are trying to get at here. We are trying to find ways to make those cycles not so long cycles and make them not so cumbersome and get rid of some of the layers of bureaucracy that go here.    I can never fix the fact that Mr. Turner is going to worry about some office or some production in his district. I guess I could worry about it, but I can't change it. But these processes, these bureaucratic processes--processes--we need to be getting at, and I know we want to do everything we can to clean that up as much as we can. And we have just got to stop doing business the same old way. And I know you know that, and you are trying, and if there is something in statute that needs to be changed, that is what we want to hear from you because we want to help you.    I yield back.    The Chairman. Mr. Langevin.</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses, Secretary Stackley and General Williamson and Mr. Lombardi. Thank you for your testimony and for the time and attention you are putting into this area.    Obviously, we all consider acquisition reform critical if we are going to continue to maintain our technological edge going forward, as well as make better use of taxpayer dollars. We have often heard it repeated that the U.S. risks losing military technological superiority across a variety of domains if reforms are not made to improve the DOD's acquisition process. So do you believe that the current acquisition process does take so long that the technology actually becomes obsolete by the time it reaches the warfighter? On balance, is that what is happening today given----</t>
   </si>
   <si>
@@ -352,9 +313,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    Mr. Lombardi, I would like to talk to you about the Defense Meteorological Satellite number 20, which the Air Force affectionately refers to as DMSP [Defense Meteorological Satellite Program] 20. Back in 1997, the Air Force paid industry to build this DMSP 20. Then they promptly put it in a storage facility for so long that the Air Force ultimately had to pay industry to upgrade it because it was antiquated. All the while, you paid millions of dollars a year to keep this satellite in storage. In all, the Air Force spent well over a half a billion dollars of taxpayer money on this satellite, $518 million to be specific. Then, in 2014, the Air Force told Congress that it no longer wanted the satellite and wanted to scrap it. Then they came back last year in 2015 and said: No, we have become too dependent on Russia and China for this meteorological information; we need to launch the satellite.    Well, unfortunately, Congress had lost confidence in the Air Force's ability to manage this program.    Mr. Lombardi, we spent $500 million that could have been used to support national security. Instead it is going in the trash. I presume it is going to be made into razor blades. We could have saved the Air Force and the Congress a lot of aggravation if we had 18 years ago put a half a billion dollars in a parking lot in a pile and just burned it.    So my question is, why should we have any confidence that the Air Force can manage space programs when we look at this example, and what did we learn from this situation?</t>
   </si>
   <si>
@@ -379,9 +337,6 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    And thank you, gentlemen, for being before us. In reading through your statements and listening to some of what you have said, I am gathering that you are asking for more leeway. You are asking for more money. You are asking for less--not oversight--but less restrictions or requirements on how you spend the money. I am probably one of the few members here that gets to take a look at a lot of our classified programs where we spend, for lack of being able to talk about it in open session, billions and billions of dollars, where you have an incredible amount of leeway, lots of money, of ability to make prototypes, where it is okay to fail on our programs because we are investing for the future. We are trying new technologies. We are making new technologies. So if we would do that with more of our budget, if we would have more ability to fail, have less restrictions on the money, I think that I would see that as the American public seeing a lot more big failures from both our Pentagon and our military-industrial complex, which I think would undermine the confidence that Americans have in what we are doing with respect to defense.    And I have only to note, Mr. Chairman, the F-35 program, which was a very open program where we tried new things, like concurrently doing the development at the same time that we were producing the product, which led to $700 billion overrun and 7 years late, and we still have a lot of problems with it.    So I am trying to understand why you want more leeway. I think we need to have actually more oversight. I think we have to have a real audit of the Defense Department. I believe we really need to tighten down in a tough budgetary environment and make real choices. Choices aren't necessarily yours. They are what we do in the Congress. That is what we are supposed to do, but I would like you to speak to why advocate for more relaxation of requirements and regulation on how we ask you to spend this money?</t>
   </si>
   <si>
@@ -409,9 +364,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for joining us, and thanks for your service to our Nation. I want to begin by laying out what I think the landscape is today in acquisition in the United States military. We look at our adversaries, and we look at how they can deliver systems, how they can deliver innovation and creation through new technology, and they start out with a blank sheet of paper, with no impediments. When we start out, we have a bureaucratic structure that starts out with a paper full of noes. No, you can't do this. No, you can't do that. You can do it this way, but you can't do it that way. And when we end up in that environment, things become risk-averse. No failure is accepted. And that is a fault not only within DOD but also here on the congressional side, and we stifle the innovation and creation that we need in order to keep up with our adversaries because they don't have those impediments.    We operate in a structure today where the nirvana is to become a program of record. Instead of saying no, the nirvana needs to be to get technology to the warfighter as quickly as possible. So we are lacking innovation and creation and getting it there in a timely manner. The question then becomes, is how do we make that happen? We have all talked a lot about process here, and process is important, but let's not forget the purveyors of process. That is people. How do we empower people to make decisions, to not be so risk-averse that they say, ``Listen, it is better for me not to make a decision than it is to make a decision where there is a risk or where there is a mistake that is made'' and we quickly correct that mistake? How do we empower people to make sure that they are on both ends accountable and we give them the authority to say either say, ``No, this isn't working, let's take a different direction,'' or, ``Yes, this is working,'' or we see something out there off the shelf that we can immediately put in the hands of the warfighter to make them more successful? I would love to get your perspective on, how do we go through that empowerment process to create accountability and authority in the hands of those people that are making things happen?</t>
   </si>
   <si>
@@ -424,9 +376,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Gentlemen, thank you for being here. Headquartered in my district is Northrop Grumman's electronics systems division, and every time I visit the facility to see what they are working on, I am always impressed by how well they have leveraged the open architecture concept in what they are doing from everything that they build from cockpit upgrades for Black Hawks, to an array of surveillance systems, targeting pods, electronic countermeasures. Everyone's testimony today has laid out the importance and the value of employing open architecture systems and how it is currently being used.    But beyond that, Mr. Lombardi, perhaps you could start because in your testimony you say that despite all the great work the Air Force has underway to enable modular open systems architecture within our systems, to capture the full value of an open architecture system, we must look at new approaches. Could you share with us what these approaches are and how this committee could be helpful in enabling this approach? And then I would also like to hear from the other witnesses too on what needs to change within the acquisition system to better enable this open architecture approach?</t>
   </si>
   <si>
@@ -448,9 +397,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    Mr. Lombardi, I have a question for you, sir. I was interested to learn about the example you gave in your testimony regarding the communications and situational awareness systems developed by Air Force's S&amp;T Program at the request of 20th Air Force and Global Strike Command. Could you please describe that particular effort and what was learned from it?</t>
   </si>
   <si>
@@ -481,9 +427,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    I appreciate you all being here today. I think it has been very informative. I want to ask the general a question about the defense acquisition workforce, and I give it high marks, and I am pleased to see that because it does make a lot of sense to me to go in that direction and to have a trained workforce.    And one of the other comments I heard today was concern about our access to commercial technology because of the bureaucracy. Do you think it would be wise to work within that group, that trained workforce, for them to make recommendations to, as you called it, a tightening up of the process? I am familiar with the process. It is a good set of checks and balances, but very time-consuming and there may be steps that can be expedited or skipped. Would they be a good source to recommend changes there?    General Williamson. Sir, that is a great observation. You know we always want to reach out to the workforce. There are two areas that I think they provide a lot of insight. As you know, part of what drives the process, part of what drives the system, are really two areas: Fairness, how am I making sure that this process is fair, meets regulations? And then how am I reducing risk throughout this process? So just like on production lines out in industry, you should go to the folks who are actually doing the work and take recommendations from them.    Now, we do have some feedback mechanisms to do that, but I think to your point, that is something that we need to go back out. So I think the language that we received in this most recent NDAA gives us a lot of opportunities to improve the acquisition system. What we have to do is leverage that, go back out to the communities and see how we can improve within our own selves before we come back and ask for something else.</t>
   </si>
   <si>
@@ -520,9 +463,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Mr. Lombardi, from an acquisition perspective, the past efforts of the C-130 modernization program seem to have been problematic. For example, DOD's fiscal year 2016 budget justification reflects an acquisition cost of approximately $4.6 million per plane for the installation of the air traffic management upgrade that has already been done for commercial and other government variants of the C-130 for under $800,000.    Can you explain why the government solution is over five times the cost, and could this be a good opportunity to look at experimentation with existing commercial solutions?</t>
   </si>
   <si>
@@ -554,9 +494,6 @@
   </si>
   <si>
     <t>412567</t>
-  </si>
-  <si>
-    <t>Jim Bridenstine</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Mr. Lombardi, according to your testimony, the Air Force views experiments as campaigns of activities rather than one-off events and focused on specific missions such as close air support and air superiority rather than specific programs of record. In most cases, if experiments are not directly tied to programs of record, my question is, how are they funded?    And as an example, how are you funding the close air support experimentation campaign?</t>
@@ -982,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1006,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1032,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1058,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1084,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1110,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1138,11 +1063,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1162,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1190,11 +1111,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1214,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1242,11 +1159,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1266,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1294,11 +1207,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1318,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1346,11 +1255,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1370,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1398,11 +1303,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1422,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1448,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1474,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1500,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1526,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1552,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1578,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1604,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1630,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1656,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1682,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1708,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1734,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1760,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1786,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1812,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1838,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1864,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1890,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1916,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1942,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1968,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1994,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2020,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2046,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2072,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2098,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2124,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2150,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2176,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2202,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2228,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2254,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2280,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2306,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2332,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2358,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2384,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2410,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2436,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2462,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2488,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2514,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2540,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2566,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2592,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>81</v>
-      </c>
-      <c r="H64" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2618,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2644,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2670,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2696,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2722,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2748,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>98</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2774,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>98</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2800,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2826,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G73" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2852,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2878,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2904,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2930,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2956,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2982,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3008,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
-      </c>
-      <c r="G80" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3034,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3060,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>111</v>
-      </c>
-      <c r="G82" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3086,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3112,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
-      </c>
-      <c r="G84" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3138,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
-      </c>
-      <c r="G85" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3164,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3190,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
-      </c>
-      <c r="G87" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3216,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3242,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3268,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3294,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
-      </c>
-      <c r="G91" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3320,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3346,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
-      </c>
-      <c r="G93" t="s">
-        <v>131</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3372,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3398,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
-      </c>
-      <c r="G95" t="s">
-        <v>131</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3424,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
-      </c>
-      <c r="G96" t="s">
-        <v>136</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3450,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3476,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>135</v>
-      </c>
-      <c r="G98" t="s">
-        <v>136</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3502,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>135</v>
-      </c>
-      <c r="G99" t="s">
-        <v>136</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3528,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3554,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>135</v>
-      </c>
-      <c r="G101" t="s">
-        <v>136</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3580,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
-      </c>
-      <c r="G102" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3606,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3632,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>143</v>
-      </c>
-      <c r="G104" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3658,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3684,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>143</v>
-      </c>
-      <c r="G106" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3710,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3736,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
-      </c>
-      <c r="G108" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3762,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3788,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
-      </c>
-      <c r="G110" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3814,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
-      </c>
-      <c r="G111" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3840,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
-      </c>
-      <c r="G112" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3866,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>154</v>
-      </c>
-      <c r="G113" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3892,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>154</v>
-      </c>
-      <c r="G114" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3918,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>154</v>
-      </c>
-      <c r="G115" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3944,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3970,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>154</v>
-      </c>
-      <c r="G117" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3996,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4022,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
-      </c>
-      <c r="G119" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4048,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4074,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>154</v>
-      </c>
-      <c r="G121" t="s">
-        <v>155</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4100,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>167</v>
-      </c>
-      <c r="G122" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4126,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4152,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>167</v>
-      </c>
-      <c r="G124" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4178,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4204,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>167</v>
-      </c>
-      <c r="G126" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4230,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>167</v>
-      </c>
-      <c r="G127" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4256,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4282,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
-      </c>
-      <c r="G129" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4308,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4334,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>167</v>
-      </c>
-      <c r="G131" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4360,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>179</v>
-      </c>
-      <c r="G132" t="s">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4386,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4412,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>179</v>
-      </c>
-      <c r="G134" t="s">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4438,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4464,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>179</v>
-      </c>
-      <c r="G136" t="s">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4490,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4516,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>179</v>
-      </c>
-      <c r="G138" t="s">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4542,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4568,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G140" t="s">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98885.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98885.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I thank you for both having this hearing and for your leadership on acquisition reform. As you mentioned, in last year's bill a number of changes were made in the area of acquisition, and I think you correctly state the need.    We have, well, more equipment that we need to buy than we have money to buy it. The next decade is going to be a major challenge for the Pentagon no matter what with major systems that need to be replaced or upgraded and a budget that is less than we had hoped it would be and may even be less still. So if we can buy that more efficiently, more quickly, at a lower cost, that is better.    But the challenges, you know, are in some cases, I think, difficult to overcome. And we can all sort of give the basic acquisition reform speech, which is, you know, we need to buy it more quickly; it needs to be upgradeable; we need to make decisions more quickly.    But let's look at the reasons why we don't. You know, certainly part of it is the bureaucracy, and we can look at working on that. But part of it also is just the rapidly changing nature of technology.    If you decide, okay, boom, right now, we are going to get this in 2 years, and in the middle of that process, there is some significant upgrade in a critical technology to the piece of equipment you are building, are you better to simply build what you did, accept good enough, or to try to incorporate in those new technologies that make it and improve it?    That is not an easy decision to make. It is the nature of the world we live in, and I don't think any acquisition reform process is necessarily going to change that. What I am most interested in is how we can more empower the individuals at the Pentagon to make those decisions with fewer layers of bureaucracy because one thing that does slow down the process is the number of people that have to approve a program. And it becomes sort of a, you know, vicious cycle. The programs take so long that you have more and different people in charge or a part of them, and everyone has got a slightly different way of looking at it when they become in charge, so it changes more and more as you go forward.    So what I would hope to do is to be able to empower individuals, program managers, to make quicker decisions to move forward. But if we are going to do that--is the last thing I will say--we also have to allow them to make mistakes.    And I think that is one of the biggest reasons that we have the acquisition nightmare that we have, is if a program is purchased and it doesn't work out and it becomes too costly, everybody is outraged. And there are all kinds of exposes. And what do we do? We say, well, we have got to have more oversight. You know, we have got to make sure we don't make these mistakes again. And what more oversight means is more people, more time, and a slower process. So we really have to make the choice and say that--you know, Silicon Valley loves to say that one of their great things is they tolerate failure because they know that is part of the experimentation process.    We need to learn how to do that a little bit at the Pentagon, empower people, make decisions, understanding they will make mistakes, but putting six layers of bureaucracy over the top of them isn't going to eliminate the mistakes and is only going to make the process more costly and more lengthy as well.    So it is a difficult challenge, one that I am aware we will not be able to legislate a magic fix for, but we want to figure out what we can do to help. So I look forward to your comments today that will help guide us in that process.    [The prepared statement of Mr. Smith can be found in the Appendix on page 48.]    The Chairman. We are fortunate to be joined today by General Michael E. Williamson, the Principal Military Deputy to the Assistant Secretary of the Army for Acquisition, Logistics, and Technology; the Honorable Sean Stackley, Assistant Secretary of the Navy for Research, Development, and Acquisition; and Mr. Richard W. Lombardi, acting Assistant Secretary of the Air Force for Acquisition.    Again, thank you all for being here. Without objection, your full written statements will be made part of the record, and each of you will be recognized to summarize your comments.    General, please proceed.    General Williamson. Chairman Thornberry, Ranking Member Smith, and distinguished members of the Armed Services Committee, in the interest of time, I will just make a few comments. But I would like to start by first thanking you for your continuing engagement with the Army on acquisition reform. This is really about, how do we get capability to our soldiers quickly, really, the right equipment at the right time.    I also want to thank you for the legislation that supports attracting, training, and retaining quality acquisition professionals. At the end of the day, program success is tied to having qualified people managing and running those programs.    I respectfully request that my written statement be made a part of the record. In it, I discuss a couple of key areas: First, modular open systems architecture; the Army's ongoing evaluation and experimentation programs and initiatives; and, really, our efforts to build a technologically superior force. That can only be accomplished by having an acquisition system that is responsive and agile.    I think Mr. Smith's comment is really important: technologies will continue to change. So one of the things that I have been following this week is the Consumer Electronics Show out in Las Vegas, and what concerns me about that is the tremendous amount of technology that our potential adversaries now have access to. And so having an agile acquisition system, one that allows us to not just meet the current set of capabilities but also find technologies that give us a competitive advantage, overmatch capability becomes critical.    Mr. Chairman, distinguished members of the committee, let me take this opportunity to thank you again for your steadfast and strong support to the outstanding men and women of the United States Army, our Army civilians, and our families. This concludes my opening remarks, and I look forward to your questions.    [The prepared statement of General Williamson can be found in the Appendix on page 49.]    The Chairman. Mr. Stackley.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Stackley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Stackley. Chairman Thornberry, Ranking Member Smith, distinguished members of the Armed Services Committee, thank you for the opportunity to appear before you today to discuss Department of the Navy, Marine Corps acquisition, and our efforts to improve agility and experimentation.    Your Navy and Marine Corps have a rich history of pushing the boundaries of science and technology to ensure our sailors and marines are equipped with the capabilities that they require to perform the full range of military operations that they are required.    Our ability to maintain our maritime dominance has become increasingly difficult, however, as the complexity, risk, cost, and time to develop our weapons system has steadily increased with each new generation of technology. In fact, our technological advantage is eroding. It is being chipped away at, as other militaries leverage access to the rapid global advancements in commercial and military science, technology, and manufacturing.    The Department of Defense [DOD] has been on a campaign commonly referred to as Better Buying Power, which is focused on and making critical inroads to address these trends. As well, we appreciate the work of your committee to understand the issues and to enact the measures that will support us in meeting our collective objectives to improve upon the cost and time required to develop and deliver these leading-edge warfighting capabilities.    At the bottom line, maintaining our technological superiority requires greater innovation and agility to more than offset our adversaries' growing capabilities. Really, prototyping and experimentation are an essential element of our strategy. These efforts jump-start the development process and inform critical decisions on operational utility, technical feasibility, producibility, cost, and risk in order to expedite the ultimate fielding of advanced warfighting capability.    Now, what do innovation and agility look like today? In response to the proliferation of ballistic missile threat and turning to the proven capability of the Aegis weapon system, the President announced 6 years ago that we would install Aegis at a remote location in Romania to provide missile defense for our allies in the region.    In the ensuing years, involving sites at Huntsville, Alabama, and at the Aegis land base test site in Morristown, New Jersey, the Naval Warfare Center in Dahlgren, Virginia, and Wallops Island, Virginia, and the Pacific Missile Range facility in Hawaii, the Navy and the Missile Defense Agency completed the design, development, and test of the most complex to date Aegis BMD [ballistic missile defense] baseline to perform the mission and separately designed the facility, and built, assembled, integrated, and tested the total system at Morristown; then disassembled, shipped, reassembled, integrated, and the tested that facility on the ground in an austere location in Romania; all leading to turnover of the Aegis Ashore site to sailors of the 6th Fleet about a week ago.    In the interim, the Navy had provided ballistic missile defense by forward deploying four BMD-capable Aegis destroyers to the Mediterranean. Subsequent to their arrival, a new cruise missile threat emerged. In response, the Naval Research Lab, working with Naval Warfare Center at Crane, Indiana, went to work breaking down the characteristics of the threat and, within a deployment cycle, assembled, shipped overseas, and installed onboard the destroyers a transportable electronic warfare system that would effectively counter it.    In parallel, the Naval Sea Systems Command went to work designing and installing on the destroyers an adjunct system known as C-RAM that combines the radar, the Navy's close-in weapon system with the rolling airframe missile to provide defense in-depth against the threat. And all the while, the newest Aegis baseline and the Navy Surface Electronic Warfare Improvement Program are being updated with these capabilities to provide the permanent capability.    Meanwhile, in the 5th Fleet, a torpedo threat emerged that triggered a demand for a torpedo defense for our carriers deployed in that region. And what was called the ``Push to the Bush,'' the Naval Undersea Warfare Center in New London, Connecticut, working with Penn State Applied Research Lab developed and integrated a series of underwater sensors, an alert system, and an antitorpedo torpedo that was installed on the USS George H.W. Bush prior to her deployment to provide the first-ever surface ship torpedo defense system. And we are now further improving upon that capability as we transition to a program of record.    Separately, in response to a combatant commander's demand, within a 12-month timeline, the Navy converted the retiring USS Ponce to perform the mission of an afloat forward staging base for the 5th Fleet. And Ponce proved to be the perfect opportunity to put to sea the first ever laser weapon system. The Navy is leveraging this experiment to further our development of directed-energy weapons.    And, meanwhile, on the other side of the globe, in the 7th Fleet, demonstration by China of a long-range antiship cruise missile, a long-range antiship ballistic missile, spurred rapid development of capabilities to counter these threats. And within about a year's timeframe, Naval Air Warfare Center at China Lake demonstrated the ability to employ the Tomahawk missile against maritime targets through a synthetic guidance, and we are exploring further systems with new seekers for that weapon.    Similarly, we are developing the antiship version of the air-launched missile known as JASSM-ER [Joint Air-to-Surface Standoff Missile-Extended Range] and will explore further steps to develop a surface-launched version of this missile. And while the details regarding the defense against antiship ballistic missiles are classified, we are employing the same basic skills of integrating mature technologies into proven systems to rapidly provide the capability necessary to defeat the threat.    Now, there are several key elements that are common to these examples of rapid prototyping and experimentation. First and foremost is a highly skilled and experienced acquisition workforce. And we are fortunate to have warfare centers, system centers, and laboratories equipped with world-class scientists and engineers uniquely qualified to develop technical solutions to complex warfighting problems, and they are positioned to leverage FFRDCs [Federally Funded Research and Development Centers], academia, small businesses, and the greater defense industry to execute our rapid prototype efforts.    The Department, with strong support from Congress, is taking measures to strengthen this workforce, and we look to further those efforts with you this year.    The second key enablers, the integration of these technical experts with our fleet forces, the collective wisdom of our operational forces combined with our technical community's understanding of complex science, technology, and engineering challenges facing naval warfare, provide an incredible opportunity to change the calculus of future naval warfare.    The third key enabler is designing our major weapons systems for rapid insertion of technology through the use of modular open systems standards. The success of the Navy submarine force's Acoustic Rapid COTS [Commercial Off-the-Shelf] Insertion program, which provided a common open system designed for submarine combat systems and enabled the near-continuous upgrade to the systems paced by available technology and a response to the threat, has spurred a sea change in naval systems design.    Navy and Marine Corps systems have since instituted modular open system design standards in the development of virtually all of our future platforms and major weapons systems.    The fourth key enabler is a work in process, and that is agility on the business side of the equation, primarily budgeting and contracting to match the agility we expect and demand on the technical and operational side. The cycle time of the budget process alone is arguably greater than the cycle time of the technologies we need to leverage and, in certain cases, the cycle time of the threat we need to defeat.    If we are to improve upon the speed at which we deliver capability to the fleet, we must improve upon the time required to go from the identification of a threat or a critical technology and touching the hardware and software required to defeat the threat.    I am confident we have the ability to collapse this timeline while yet maintaining the necessary judicious oversight required by Congress on the use of taxpayer dollars. We have demonstrated the ability to accelerate capability and response to urgent needs, and we are bringing a similar sense of urgency to major program acquisition to deliver capability at much-needed speed of technology.    The Navy looks forward to working closely with your committee again this year as we continue to tackle these challenges, and I look forward to your questions.    [The prepared statement of Secretary Stackley can be found in the Appendix on page 58.]    The Chairman. Thank you.    Mr. Lombardi.</t>
   </si>
   <si>
+    <t>Lombardi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lombardi. Chairman Thornberry, Ranking Member Smith, members of the committee and staff, thank you for today's opportunity to discuss acquisition reform and particularly experimentation and agility. It is my pleasure to do so.    First, let me say that Dr. Bill LaPlante set our acquisition community on a brilliant course during his tenure, and I----    The Chairman. Mr. Lombardi, would you get that mike right in front of your mouth, please. Thank you.</t>
   </si>
   <si>
@@ -109,6 +124,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mr. Chairman.    And we need to first acknowledge the effort that you and the ranking member have put in this whole area of acquisition reform. Thank you for that.    Gentlemen, thank you for being here. All three of you are incredibly qualified, talented individuals, and we just appreciate your service to the country and being here.    Let me tell you one of my most frustrating points when we are talking about acquisition reform, especially when you look at emerging technologies, capabilities, and threats. People come in here, and they give us the scenario. They say: In a best world, we have a year at the Pentagon to prepare a budget. Then it takes a year over here in Congress. And then we start trying to utilize that funding, and some of the stuff we are looking at has a shelf life of 3 years.    But when I watch speeches outside of this committee room and try to listen to the changes they want, here is what I normally hear: A restating of the problem; secondly, I hear people say something needs to be done; then they say we are studying it; then they say we need a stable budget; then they will give some examples. But, oftentimes, we don't get the specificity we need.    Mr. Stackley, you have had incredibly good work. You have been there 7-plus years, I guess, now. Based on your personal opinion and from the study you have had and what you have done, does the Navy need to establish something similar to the Air Force's Rapid Capabilities Office?</t>
   </si>
   <si>
@@ -139,6 +160,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And, really, just following up with everything that has been said previously, can you pinpoint to some extent--and I want to applaud you because you have the answer basically. I mean, you know what needs to be done. What is really getting in the way of doing that?    How much responsibility does Congress bear? What can we obviously do better? And you have cited the 6.4 accounts. I don't know whether in terms of other research and development, you know, be it DARPA [Defense Advanced Research Projects Agency], people are aware of what is done there. What else--where else can you drive this?</t>
   </si>
   <si>
@@ -172,6 +199,12 @@
     <t>400279</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much.    I am wondering why you feel like the need for flexibility--and I understand for rapid acquisitions. In fact, Mr. Lombardi, you talked about flexible funding, and then, Mr. Stackley and General Williamson, you both have referred to it. There probably was a reason at some point that Congress kind of stovepiped the money in the way it comes to you. Any idea what that reason was?</t>
   </si>
   <si>
@@ -190,6 +223,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to the witnesses for the hearing today.    In the last defense authorization bill, we actually moved forward on a series of reforms. And, again, I salute the chairman and ranking member for their hard work in terms of some of these streamlinings of the acquisition process.    Another thing to build in was to revisit the National Sea-Based Deterrence Fund to expand the range of acquisition tools available to the Navy as they prepare to move to the next critical stage of recapitalization of our ballistic submarine fleet, which, again, has been consistently identified as one of the top priorities of our national defense. It is also one of the highest cost programs that we are facing.    In the 2016 NDAA, we expanded the fund to include authorization of incremental funding authority, economic order quantity contract authority, and advance construction authority. And, as Mr. Forbes knows, last month, the Seapower Subcommittee held a hearing on acquisition efficiency in Navy shipbuilding, and CBO [Congressional Budget Office] and CRS [Congressional Research Service] testified. Among their findings, both experts testified that using the fund with these new authorities would generate up to a 10 percent reduction in program costs. So we are talking about $100 billion program; 10 percent is real money. That is almost the equivalent of getting 12 boats for the price of 11, according to their math.    So, Mr. Stackley, I just wanted to ask you if you have considered the benefits outlined by CBO and CRS in the use of the fund as it exists today with the new authorities that were enacted in the NDAA 2016 bill.</t>
   </si>
   <si>
@@ -208,6 +247,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. I want to thank Chairman Mac Thornberry for his promotion of acquisition reform, experimentation and agility. I believe he is really making a difference and with your help.    In particular, Secretary Stackley, what lessons can you draw from the experience of building a prototype laser weapon system on the ship Ponce that might illustrate the value of prototyping as well as the limitations?</t>
   </si>
   <si>
@@ -235,6 +277,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you to all of our witnesses today. And in particular, I would like to welcome you, Mr. Lombardi. As we know, I came to know you in your work at Hanscom Air Force Base, and it is great to see you here in this new capacity. I appreciated very much the work we were able to do then, and I know coming from the Massachusetts environment, you do recognize the opportunities presented by working with the academic communities as well as the private sector and the federally funded research facilities and the opportunities that that creates given the rapid-change environment we live in.    I wanted to revisit some of your testimony and what you talked about the Air Force's efforts to contract with companies that have not traditionally worked with the services. I know this was a pilot project that actually took place at Hanscom. I am just curious as to what your experience was with this type of outreach, and what are some of the best practices and lessons learned that came as a result? Given the universe of companies that are out there, I am also curious as to how you identified and solicited those companies to become part of this effort.</t>
   </si>
   <si>
@@ -265,6 +313,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Mr. Lombardi, now the focus of this hearing is on experimentation, agility, and ultimately delivering combat capability to our men and women in the field. With that in mind and for over six decades, the Air Force's Big Safari program has been an extraordinarily successful, agile organization, and it has in the past been a go-to organization when capability was needed in a short amount of time.    Yet it appears over the last few years that that sort of agility has come under some stress, and Big Safari is operating more like the mainstream organizations rather than trying to leverage and replicate that agility into those organizations. As one example, we understand that the contracting function has been moved out from under their organization, just as it has been across the rest of the Air Force. It would seem to many that aligning all elements of program execution under a single entity would make more sense.    Looking back on what made this program successful, isn't the Big Safari program a model for some of the acquisition reform that we clearly need and are looking for now, and is this an acquisition culture model that we need to fully protect and to foster?    Mr. Lombardi.</t>
   </si>
   <si>
@@ -280,6 +334,9 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman, and I also want to join my colleagues in thanking you for your leadership on this issue. It is a very difficult one and one on which the Congress has worked for a long time, and I hope that with your leadership and that of the ranking member, we will continue to make some progress this year. There were a number of obstacles listed by both the chairman and the ranking member as to why acquisition reform has proven so difficult.    One that was omitted, I believe, was the influence of the defense contractors themselves. We know that in 2014, which is the last year for which we have full data, they spent $70 million to influence the decisions that lawmakers make, and I think that is a factor. I don't know how large a factor. We can measure what they spent. I don't know what its effect is on the ultimate decisions, but it is a factor, and I think that needs to be included in the calculus for reform. And I would link campaign finance reform to military acquisition reform. I think those two things are important, and I would welcome any comments on that.    However, I would like to ask a question about a different area, and it gets back to another issue that has been raised in today's hearing so far, and that is allowing the military the freedom to experiment and the freedom to fail in order to better guarantee innovation and success down the road long term.    General Williamson, I would like you to talk a little about the Network Integration Evaluation, or NIE, and the Army Warfighting Assessment, or the AWA--one which looks at programs that are programs of record and the other that allows the Army to experiment with programs that are not programs of record--and how those two work together to satisfy the concern that many of us have raised and you have pointed to. I think I heard you say that we are looking for early, more experimental stuff, not necessarily connected to programs of record, not necessarily connected to identified gaps, but those kind of things that may appear in the future unbeknownst to us now.    General Williamson. Sir, thank you for the question. This is one that I think as an Army we are very, very proud of in terms of the development of both the network integration exercises and the new warfighting assessments. So what we discovered in 2011 is that, as we were deploying capability in the theater, we found that even though we were finding the best of breed, whether it was a radio or a system, the integration was happening in the field in combat, and what we really needed was a venue to make sure that all of the pieces worked together. So the start of the NIE really was focused on integration. But at the same time we were doing that, sir, we really discovered that we did not have a good operational venue to look at new capabilities, get the warfighter to touch them early on and influence the requirements process and to make changes, refinements, in the requirements.    So the network integration exercises quickly evolved from pure integration to also looking at, what is the effect of introducing this new technology? Because here is what I would offer to you, is that in some cases, it is not a new thing; it could be a new use for an existing technology. And how you do tactics, techniques, and procedures, how you organize your unit, all of those things have an effect on, am I increasing warfighting or the power of that unit?    So as we discovered that, the NIEs really were technically focused, and we discovered that we needed to also spend more time reaching out and looking deeper, further out. What capability do we need 5 years, 10 years, 20 years from now, and the warfighting assessments that we are now implementing give us that capability.    And, sir, to your point, this is really what is so important about what we are doing, is that that information comes back, and it influences not only current systems, but it also sets the conditions for the requirements documents that are more realistic in terms of what is really needed. I think this is something that did not exist. We did small pockets, but the center of gravity for us is a brigade. And even though this is resource heavy, we dedicated an entire brigade to have these experiments and to do these integration exercises. We are very proud of what they have accomplished.</t>
   </si>
   <si>
@@ -289,12 +346,24 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here. I heard a couple of you, I think Secretary Stackley and Lombardi, saying that they were confident that we could reduce some acquisition time, and you were on the right track for making changes. And that is good, but I am probably pretty skeptical. I certainly hope we can reduce the time and be more flexible and be more agile. The history just doesn't show that. Everybody in this room--and even Frank Kendall, who is not in this room--everybody kind of knows what you have to do to speed this up and understands it is going to be very difficult to get there because we can't do every program with the Skunk Works. We just can't do it.    So we are looking for ways that we can speed up the process, streamline it. The ranking member talked about the levels of review and oversight within the Pentagon, and then we add on top of that. And, of course, we bear some culpability for sure here in Congress because if a system is being manufactured in our district or an office is in our district, it clearly is a key national security interest, and if it is in somebody else's district, it is a bill payer. So we understand that we are part of the problem, and we need to work on that ourselves. I have been pleased to see that you all, the Pentagon, and industry has been smarter and smarter in making sure that some major component is built in everybody's district, so that makes it a little bit easier because whatever that component is, is a key national security interest, and therefore, we are going to do our part to protect it. That is the way our job is because we are looking to protect jobs in our district.    I want to go back for just a minute to the ever-name-changing Marine Corps expeditionary fighting vehicle. I remember very well because I put it there in POM 1990 in an earlier life. We could not afford that vehicle, which was called the Triple A back then, so it was always in the last year of the POM. When people, my successors came, it kept coming, and it kept going the last year of POM, and we couldn't afford it. It took every nickel of procurement Marine Corps to buy that one item, and yet it stayed in the POM year after year after year, until finally reality caught up, finally.    So part of this is, we need to live a little bit more, in my judgment, in the world of the possible, in a reality. If you can't afford it, you know you can't afford it, then why are you expending all of that energy? And I am raising my hand; I was guilty. I put it right in there because I was told how important this was. We need to do a better job--we collectively--we here and certainly those of you sitting at the table. When you are living, as we are now, in an uncertain budget time--I would argue we are always in an uncertain budget time--let's don't put our energy into doing something that we cannot afford and are not going to be able to afford. My argument to you is that is where that Triple A, which then became the expeditionary fighting vehicle and something else now, you couldn't buy it. If you took every procurement dollar, every procurement Marine Corps dollar--that is what it took--you couldn't buy another thing. You couldn't buy a single rifle, nothing.    I think that is part of this process. We all know that the JROC [Joint Requirements Oversight Council], the whole requirements process is cumbersome, and I have heard you use today words like ``long cycles'' and ``long cycles within cycles.'' It seems to me that is what we are trying to get at here. We are trying to find ways to make those cycles not so long cycles and make them not so cumbersome and get rid of some of the layers of bureaucracy that go here.    I can never fix the fact that Mr. Turner is going to worry about some office or some production in his district. I guess I could worry about it, but I can't change it. But these processes, these bureaucratic processes--processes--we need to be getting at, and I know we want to do everything we can to clean that up as much as we can. And we have just got to stop doing business the same old way. And I know you know that, and you are trying, and if there is something in statute that needs to be changed, that is what we want to hear from you because we want to help you.    I yield back.    The Chairman. Mr. Langevin.</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses, Secretary Stackley and General Williamson and Mr. Lombardi. Thank you for your testimony and for the time and attention you are putting into this area.    Obviously, we all consider acquisition reform critical if we are going to continue to maintain our technological edge going forward, as well as make better use of taxpayer dollars. We have often heard it repeated that the U.S. risks losing military technological superiority across a variety of domains if reforms are not made to improve the DOD's acquisition process. So do you believe that the current acquisition process does take so long that the technology actually becomes obsolete by the time it reaches the warfighter? On balance, is that what is happening today given----</t>
   </si>
   <si>
@@ -313,6 +382,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    Mr. Lombardi, I would like to talk to you about the Defense Meteorological Satellite number 20, which the Air Force affectionately refers to as DMSP [Defense Meteorological Satellite Program] 20. Back in 1997, the Air Force paid industry to build this DMSP 20. Then they promptly put it in a storage facility for so long that the Air Force ultimately had to pay industry to upgrade it because it was antiquated. All the while, you paid millions of dollars a year to keep this satellite in storage. In all, the Air Force spent well over a half a billion dollars of taxpayer money on this satellite, $518 million to be specific. Then, in 2014, the Air Force told Congress that it no longer wanted the satellite and wanted to scrap it. Then they came back last year in 2015 and said: No, we have become too dependent on Russia and China for this meteorological information; we need to launch the satellite.    Well, unfortunately, Congress had lost confidence in the Air Force's ability to manage this program.    Mr. Lombardi, we spent $500 million that could have been used to support national security. Instead it is going in the trash. I presume it is going to be made into razor blades. We could have saved the Air Force and the Congress a lot of aggravation if we had 18 years ago put a half a billion dollars in a parking lot in a pile and just burned it.    So my question is, why should we have any confidence that the Air Force can manage space programs when we look at this example, and what did we learn from this situation?</t>
   </si>
   <si>
@@ -337,6 +412,12 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    And thank you, gentlemen, for being before us. In reading through your statements and listening to some of what you have said, I am gathering that you are asking for more leeway. You are asking for more money. You are asking for less--not oversight--but less restrictions or requirements on how you spend the money. I am probably one of the few members here that gets to take a look at a lot of our classified programs where we spend, for lack of being able to talk about it in open session, billions and billions of dollars, where you have an incredible amount of leeway, lots of money, of ability to make prototypes, where it is okay to fail on our programs because we are investing for the future. We are trying new technologies. We are making new technologies. So if we would do that with more of our budget, if we would have more ability to fail, have less restrictions on the money, I think that I would see that as the American public seeing a lot more big failures from both our Pentagon and our military-industrial complex, which I think would undermine the confidence that Americans have in what we are doing with respect to defense.    And I have only to note, Mr. Chairman, the F-35 program, which was a very open program where we tried new things, like concurrently doing the development at the same time that we were producing the product, which led to $700 billion overrun and 7 years late, and we still have a lot of problems with it.    So I am trying to understand why you want more leeway. I think we need to have actually more oversight. I think we have to have a real audit of the Defense Department. I believe we really need to tighten down in a tough budgetary environment and make real choices. Choices aren't necessarily yours. They are what we do in the Congress. That is what we are supposed to do, but I would like you to speak to why advocate for more relaxation of requirements and regulation on how we ask you to spend this money?</t>
   </si>
   <si>
@@ -364,6 +445,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for joining us, and thanks for your service to our Nation. I want to begin by laying out what I think the landscape is today in acquisition in the United States military. We look at our adversaries, and we look at how they can deliver systems, how they can deliver innovation and creation through new technology, and they start out with a blank sheet of paper, with no impediments. When we start out, we have a bureaucratic structure that starts out with a paper full of noes. No, you can't do this. No, you can't do that. You can do it this way, but you can't do it that way. And when we end up in that environment, things become risk-averse. No failure is accepted. And that is a fault not only within DOD but also here on the congressional side, and we stifle the innovation and creation that we need in order to keep up with our adversaries because they don't have those impediments.    We operate in a structure today where the nirvana is to become a program of record. Instead of saying no, the nirvana needs to be to get technology to the warfighter as quickly as possible. So we are lacking innovation and creation and getting it there in a timely manner. The question then becomes, is how do we make that happen? We have all talked a lot about process here, and process is important, but let's not forget the purveyors of process. That is people. How do we empower people to make decisions, to not be so risk-averse that they say, ``Listen, it is better for me not to make a decision than it is to make a decision where there is a risk or where there is a mistake that is made'' and we quickly correct that mistake? How do we empower people to make sure that they are on both ends accountable and we give them the authority to say either say, ``No, this isn't working, let's take a different direction,'' or, ``Yes, this is working,'' or we see something out there off the shelf that we can immediately put in the hands of the warfighter to make them more successful? I would love to get your perspective on, how do we go through that empowerment process to create accountability and authority in the hands of those people that are making things happen?</t>
   </si>
   <si>
@@ -376,6 +463,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Gentlemen, thank you for being here. Headquartered in my district is Northrop Grumman's electronics systems division, and every time I visit the facility to see what they are working on, I am always impressed by how well they have leveraged the open architecture concept in what they are doing from everything that they build from cockpit upgrades for Black Hawks, to an array of surveillance systems, targeting pods, electronic countermeasures. Everyone's testimony today has laid out the importance and the value of employing open architecture systems and how it is currently being used.    But beyond that, Mr. Lombardi, perhaps you could start because in your testimony you say that despite all the great work the Air Force has underway to enable modular open systems architecture within our systems, to capture the full value of an open architecture system, we must look at new approaches. Could you share with us what these approaches are and how this committee could be helpful in enabling this approach? And then I would also like to hear from the other witnesses too on what needs to change within the acquisition system to better enable this open architecture approach?</t>
   </si>
   <si>
@@ -397,6 +490,9 @@
     <t>412275</t>
   </si>
   <si>
+    <t>Fleming</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    Mr. Lombardi, I have a question for you, sir. I was interested to learn about the example you gave in your testimony regarding the communications and situational awareness systems developed by Air Force's S&amp;T Program at the request of 20th Air Force and Global Strike Command. Could you please describe that particular effort and what was learned from it?</t>
   </si>
   <si>
@@ -427,6 +523,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    I appreciate you all being here today. I think it has been very informative. I want to ask the general a question about the defense acquisition workforce, and I give it high marks, and I am pleased to see that because it does make a lot of sense to me to go in that direction and to have a trained workforce.    And one of the other comments I heard today was concern about our access to commercial technology because of the bureaucracy. Do you think it would be wise to work within that group, that trained workforce, for them to make recommendations to, as you called it, a tightening up of the process? I am familiar with the process. It is a good set of checks and balances, but very time-consuming and there may be steps that can be expedited or skipped. Would they be a good source to recommend changes there?    General Williamson. Sir, that is a great observation. You know we always want to reach out to the workforce. There are two areas that I think they provide a lot of insight. As you know, part of what drives the process, part of what drives the system, are really two areas: Fairness, how am I making sure that this process is fair, meets regulations? And then how am I reducing risk throughout this process? So just like on production lines out in industry, you should go to the folks who are actually doing the work and take recommendations from them.    Now, we do have some feedback mechanisms to do that, but I think to your point, that is something that we need to go back out. So I think the language that we received in this most recent NDAA gives us a lot of opportunities to improve the acquisition system. What we have to do is leverage that, go back out to the communities and see how we can improve within our own selves before we come back and ask for something else.</t>
   </si>
   <si>
@@ -463,6 +565,9 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Mr. Lombardi, from an acquisition perspective, the past efforts of the C-130 modernization program seem to have been problematic. For example, DOD's fiscal year 2016 budget justification reflects an acquisition cost of approximately $4.6 million per plane for the installation of the air traffic management upgrade that has already been done for commercial and other government variants of the C-130 for under $800,000.    Can you explain why the government solution is over five times the cost, and could this be a good opportunity to look at experimentation with existing commercial solutions?</t>
   </si>
   <si>
@@ -494,6 +599,12 @@
   </si>
   <si>
     <t>412567</t>
+  </si>
+  <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Mr. Lombardi, according to your testimony, the Air Force views experiments as campaigns of activities rather than one-off events and focused on specific missions such as close air support and air superiority rather than specific programs of record. In most cases, if experiments are not directly tied to programs of record, my question is, how are they funded?    And as an example, how are you funding the close air support experimentation campaign?</t>
@@ -869,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +988,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3341 +1010,3921 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
       <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
       <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G65" t="s">
+        <v>99</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G67" t="s">
+        <v>99</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G69" t="s">
+        <v>99</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G72" t="s">
+        <v>110</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G73" t="s">
+        <v>114</v>
+      </c>
       <c r="H73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G76" t="s">
+        <v>114</v>
+      </c>
       <c r="H76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G77" t="s">
+        <v>114</v>
+      </c>
       <c r="H77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G78" t="s">
+        <v>122</v>
+      </c>
       <c r="H78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G80" t="s">
+        <v>122</v>
+      </c>
       <c r="H80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G82" t="s">
+        <v>122</v>
+      </c>
       <c r="H82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G84" t="s">
+        <v>122</v>
+      </c>
       <c r="H84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G85" t="s">
+        <v>132</v>
+      </c>
       <c r="H85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>132</v>
+      </c>
       <c r="H87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G89" t="s">
+        <v>132</v>
+      </c>
       <c r="H89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
       <c r="H91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G92" t="s">
+        <v>132</v>
+      </c>
       <c r="H92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G93" t="s">
+        <v>143</v>
+      </c>
       <c r="H93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G95" t="s">
+        <v>143</v>
+      </c>
       <c r="H95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G96" t="s">
+        <v>149</v>
+      </c>
       <c r="H96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G98" t="s">
+        <v>149</v>
+      </c>
       <c r="H98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G99" t="s">
+        <v>149</v>
+      </c>
       <c r="H99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G101" t="s">
+        <v>149</v>
+      </c>
       <c r="H101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G102" t="s">
+        <v>158</v>
+      </c>
       <c r="H102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G104" t="s">
+        <v>158</v>
+      </c>
       <c r="H104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G106" t="s">
+        <v>158</v>
+      </c>
       <c r="H106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G108" t="s">
+        <v>158</v>
+      </c>
       <c r="H108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G110" t="s">
+        <v>158</v>
+      </c>
       <c r="H110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G111" t="s">
+        <v>169</v>
+      </c>
       <c r="H111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G112" t="s">
+        <v>169</v>
+      </c>
       <c r="H112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G113" t="s">
+        <v>169</v>
+      </c>
       <c r="H113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G114" t="s">
+        <v>169</v>
+      </c>
       <c r="H114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G115" t="s">
+        <v>169</v>
+      </c>
       <c r="H115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G117" t="s">
+        <v>169</v>
+      </c>
       <c r="H117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G119" t="s">
+        <v>169</v>
+      </c>
       <c r="H119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G121" t="s">
+        <v>169</v>
+      </c>
       <c r="H121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G122" t="s">
+        <v>183</v>
+      </c>
       <c r="H122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I122" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G124" t="s">
+        <v>183</v>
+      </c>
       <c r="H124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I124" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>148</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G126" t="s">
+        <v>183</v>
+      </c>
       <c r="H126" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G127" t="s">
+        <v>183</v>
+      </c>
       <c r="H127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G129" t="s">
+        <v>183</v>
+      </c>
       <c r="H129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>148</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G131" t="s">
+        <v>183</v>
+      </c>
       <c r="H131" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G132" t="s">
+        <v>195</v>
+      </c>
       <c r="H132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G134" t="s">
+        <v>195</v>
+      </c>
       <c r="H134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G136" t="s">
+        <v>195</v>
+      </c>
       <c r="H136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G138" t="s">
+        <v>195</v>
+      </c>
       <c r="H138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>159</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G140" t="s">
+        <v>195</v>
+      </c>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>196</v>
+      </c>
+      <c r="I140" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98885.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98885.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
   </si>
   <si>
     <t>400137</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Forbes</t>
@@ -980,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,7 +997,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,3918 +1022,4220 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G73" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I77" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I78" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G80" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I80" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I84" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G85" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="H85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I87" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G92" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="H92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G93" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G95" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="H95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I95" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G96" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G98" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="H98" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I98" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G99" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G101" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I101" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="H102" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="H104" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I104" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="H106" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G108" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="H108" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I108" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G110" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I110" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G111" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H111" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I111" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G112" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H112" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J112" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G113" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H113" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I113" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G114" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H114" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I114" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G115" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H115" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I115" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G117" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I117" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J117" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G119" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H119" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G121" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H121" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I121" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G122" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H122" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I122" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G124" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H124" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I124" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G126" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H126" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I126" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G127" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H127" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G129" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H129" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I129" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G131" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="H131" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I131" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G132" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="H132" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I132" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J132" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G134" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="H134" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I134" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G136" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="H136" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>21</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G138" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="H138" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I138" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J138" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G140" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="H140" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I140" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="J140" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
